--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$35</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-practitioner</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -533,14 +530,18 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>In some contexts, the real name of the practitioner is obscured. However this is handled, the resource must include at least some useable name for the practitioner in the name.text element</t>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pract-1:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
   </si>
   <si>
     <t>XCN Components</t>
@@ -1051,21 +1052,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1414,7 +1400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1526,7 +1512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1640,7 +1626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1752,7 +1738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -1866,7 +1852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -1980,7 +1966,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2094,7 +2080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2208,7 +2194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2322,7 +2308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2438,7 +2424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2552,7 +2538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2670,7 +2656,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -2683,13 +2669,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
@@ -2771,27 +2757,27 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2814,19 +2800,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2875,7 +2861,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2890,24 +2876,24 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2930,19 +2916,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2991,7 +2977,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3006,24 +2992,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3049,14 +3035,14 @@
         <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3081,14 +3067,14 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3105,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3120,24 +3106,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3160,17 +3146,17 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3219,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3234,24 +3220,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3274,17 +3260,17 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3333,7 +3319,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3351,21 +3337,21 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3388,13 +3374,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3433,19 +3419,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3460,24 +3446,24 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3500,13 +3486,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3557,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3575,21 +3561,21 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3618,7 +3604,7 @@
         <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>136</v>
@@ -3671,7 +3657,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3689,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3698,16 +3684,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3729,10 +3715,10 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>136</v>
@@ -3787,7 +3773,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3814,12 +3800,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,14 +3831,14 @@
         <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3901,7 +3887,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3919,21 +3905,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3956,13 +3942,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3989,14 +3975,14 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4013,7 +3999,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -4031,21 +4017,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN24" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4068,17 +4054,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4113,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4145,21 +4131,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4182,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4239,7 +4225,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4257,24 +4243,24 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
+      <c r="B27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4296,13 +4282,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4353,7 +4339,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4368,24 +4354,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4408,13 +4394,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4465,7 +4451,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4483,21 +4469,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4526,7 +4512,7 @@
         <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>136</v>
@@ -4579,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4597,7 +4583,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4606,16 +4592,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4637,10 +4623,10 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>136</v>
@@ -4695,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4722,12 +4708,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4750,17 +4736,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4795,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4818,30 +4804,30 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="B32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4864,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4897,11 +4883,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4919,7 +4905,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -4937,21 +4923,21 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4974,17 +4960,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5033,7 +5019,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5051,21 +5037,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5088,13 +5074,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5145,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5163,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5172,12 +5158,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5200,19 +5186,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5261,7 +5247,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5276,37 +5262,19 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN35">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1045,10 +1049,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1497,16 +1501,16 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -1514,10 +1518,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1528,7 +1532,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1537,19 +1541,19 @@
         <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1599,13 +1603,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1628,10 +1632,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1642,7 +1646,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -1651,16 +1655,16 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1711,19 +1715,19 @@
         <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1740,10 +1744,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1754,28 +1758,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1825,19 +1829,19 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -1854,10 +1858,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1868,7 +1872,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1880,16 +1884,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1915,13 +1919,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1939,19 +1943,19 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -1968,21 +1972,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1994,16 +1998,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2053,25 +2057,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2082,14 +2086,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2108,16 +2112,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2167,7 +2171,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2185,7 +2189,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2196,14 +2200,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2222,16 +2226,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2281,7 +2285,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2293,13 +2297,13 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2310,14 +2314,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2330,25 +2334,25 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2397,7 +2401,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2409,13 +2413,13 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2426,10 +2430,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2449,20 +2453,20 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2511,7 +2515,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2523,27 +2527,27 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2554,7 +2558,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2563,105 +2567,105 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2681,22 +2685,22 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2745,7 +2749,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2757,16 +2761,16 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2774,10 +2778,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2797,22 +2801,22 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2861,7 +2865,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2873,16 +2877,16 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -2890,10 +2894,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2913,22 +2917,22 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2977,7 +2981,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2989,16 +2993,16 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3006,10 +3010,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3020,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3029,20 +3033,20 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3067,13 +3071,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3091,28 +3095,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3120,10 +3124,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3134,7 +3138,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3143,20 +3147,20 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3205,28 +3209,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3234,10 +3238,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3260,17 +3264,17 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3319,7 +3323,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3331,16 +3335,16 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3348,10 +3352,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3374,13 +3378,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3419,19 +3423,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3443,16 +3447,16 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3460,10 +3464,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3474,7 +3478,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3486,13 +3490,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3543,13 +3547,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3565,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3572,14 +3576,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3598,16 +3602,16 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3657,7 +3661,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3669,13 +3673,13 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3686,14 +3690,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3706,25 +3710,25 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3773,7 +3777,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3785,13 +3789,13 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3802,10 +3806,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3828,17 +3832,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3887,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3899,13 +3903,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3916,10 +3920,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3927,10 +3931,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3942,13 +3946,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3975,13 +3979,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3999,28 +4003,28 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4028,10 +4032,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4042,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4054,17 +4058,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4113,28 +4117,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4142,10 +4146,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4156,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4168,13 +4172,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4225,25 +4229,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4254,13 +4258,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4270,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4282,13 +4286,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4339,7 +4343,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4351,16 +4355,16 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4368,10 +4372,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4382,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4394,13 +4398,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4451,13 +4455,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4469,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4480,14 +4484,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4506,16 +4510,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4565,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4577,13 +4581,13 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4594,14 +4598,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4614,25 +4618,25 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4681,7 +4685,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4693,13 +4697,13 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4710,10 +4714,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4736,17 +4740,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4795,7 +4799,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4804,19 +4808,19 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4824,10 +4828,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4835,10 +4839,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4850,13 +4854,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4883,11 +4887,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4905,28 +4909,28 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -4934,10 +4938,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4948,7 +4952,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -4960,17 +4964,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5019,28 +5023,28 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5048,10 +5052,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5062,7 +5066,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5074,13 +5078,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5131,25 +5135,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5160,10 +5164,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5186,19 +5190,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5227,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5247,7 +5251,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5259,16 +5263,16 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -870,22 +870,6 @@
   </si>
   <si>
     <t>[DA] Autorisationskode, som specificeret af autorisationsregisteret</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification:officialHealthAuthorization.code</t>
@@ -1276,8 +1260,8 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.9140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.98828125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4746,7 +4730,7 @@
         <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4808,19 +4792,19 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4828,7 +4812,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>244</v>
@@ -4857,7 +4841,7 @@
         <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>247</v>
@@ -4887,11 +4871,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4938,7 +4922,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>252</v>
@@ -5052,7 +5036,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>259</v>
@@ -5164,10 +5148,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5193,16 +5177,16 @@
         <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5251,7 +5235,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5266,13 +5250,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>

--- a/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.systemm value which allows for official qualifications to
+    <t>Slice based on the identifier.system value which allows for official qualifications to
 Declaring the slices, and their cardinalities, to allow a KL-code and a SNOMED CT code</t>
   </si>
   <si>
@@ -834,7 +834,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1225,17 +1225,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1244,26 +1244,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.15625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="78.30078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.2578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.74609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="67.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.9140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.34765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4258,7 +4258,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
